--- a/stats_code/output/run1_overall_recall_comparison/overall_recall_anova_statistics.xlsx
+++ b/stats_code/output/run1_overall_recall_comparison/overall_recall_anova_statistics.xlsx
@@ -11,6 +11,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adventure_anova_table" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Romance_group_stats" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Romance_anova_table" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Engagement_trans_score_stats" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Engagement_trans_score_anova" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Engagement_avg_sent_readtime_stats" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Engagement_avg_sent_readtime_anova" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Engagement_sum_readtime_stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Engagement_sum_readtime_anova" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -511,6 +517,81 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sum_sq</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PR(&gt;F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>C(condition)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>201.7619723969485</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4225616698406977</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6563135764369739</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>29364.61631053801</v>
+      </c>
+      <c r="C3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -748,4 +829,421 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26.72222222222222</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.9319044977402</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pasv</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>28.85454545454546</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.046010337729172</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>yoke</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>31.32075471698113</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.738451908455195</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sum_sq</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PR(&gt;F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>C(condition)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>336.5450379808878</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.818443997047488</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1666135192094383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11381.99464455879</v>
+      </c>
+      <c r="C3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.057777777777777</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.827574913747581</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pasv</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.381454545454546</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.649419515864517</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>yoke</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.974905660377359</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.314367019827957</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sum_sq</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PR(&gt;F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>C(condition)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.698951359144035</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4045394979700549</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6681685625011459</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>714.3567192757766</v>
+      </c>
+      <c r="C3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>32.80019444444444</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.84226579051089</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pasv</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>34.87899696969697</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.92799504052588</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>yoke</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>32.20722327044025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.87542503443407</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>